--- a/experiments/experiment_2/notebooks/estrategias.xlsx
+++ b/experiments/experiment_2/notebooks/estrategias.xlsx
@@ -14,42 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
-  <si>
-    <t>Estratégia</t>
-  </si>
-  <si>
-    <t>Related</t>
-  </si>
-  <si>
-    <t>Visited</t>
-  </si>
-  <si>
-    <t>Final Selected</t>
-  </si>
-  <si>
-    <t>Precision</t>
-  </si>
-  <si>
-    <t>Recall</t>
-  </si>
-  <si>
-    <t>F-Measure</t>
-  </si>
-  <si>
-    <t>Final Precision</t>
-  </si>
-  <si>
-    <t>Final Recall</t>
-  </si>
-  <si>
-    <t>Final F-Measure</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>E1</t>
   </si>
   <si>
     <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
   </si>
   <si>
     <t>E4</t>
@@ -419,53 +392,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:14">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="1">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="1">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="1">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="1">
         <v>9</v>
       </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>17</v>
@@ -477,135 +456,171 @@
         <v>6</v>
       </c>
       <c r="F2">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="J2">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="K2">
-        <v>0.01</v>
+        <v>0.0356020942408377</v>
+      </c>
+      <c r="L2">
+        <v>0.006417112299465241</v>
+      </c>
+      <c r="M2">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="N2">
+        <v>0.01273885350318471</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3">
-        <v>1311</v>
+        <v>1590</v>
       </c>
       <c r="E3">
         <v>7</v>
       </c>
       <c r="F3">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0.01</v>
+        <v>0.02484472049689441</v>
+      </c>
+      <c r="L3">
+        <v>0.00440251572327044</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0.008766437069505322</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>11</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>581</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>0.02</v>
-      </c>
-      <c r="G4">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.0189328743545611</v>
+      </c>
+      <c r="J5">
         <v>0.55</v>
       </c>
-      <c r="H4">
-        <v>0.04</v>
-      </c>
-      <c r="I4">
-        <v>0.01</v>
-      </c>
-      <c r="J4">
-        <v>0.43</v>
-      </c>
-      <c r="K4">
-        <v>0.01</v>
+      <c r="K5">
+        <v>0.03660565723793677</v>
+      </c>
+      <c r="L5">
+        <v>0.005163511187607574</v>
+      </c>
+      <c r="M5">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="N5">
+        <v>0.01020408163265306</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>378</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0.03</v>
-      </c>
-      <c r="G5">
-        <v>0.5</v>
-      </c>
-      <c r="H5">
-        <v>0.05</v>
-      </c>
-      <c r="I5">
-        <v>0.01</v>
-      </c>
-      <c r="J5">
-        <v>0.29</v>
-      </c>
-      <c r="K5">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -617,57 +632,119 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.02645502645502645</v>
+      </c>
+      <c r="J6">
         <v>0.5</v>
       </c>
-      <c r="H6">
-        <v>0.05</v>
-      </c>
-      <c r="I6">
-        <v>0.01</v>
-      </c>
-      <c r="J6">
-        <v>0.29</v>
-      </c>
       <c r="K6">
-        <v>0.01</v>
+        <v>0.05025125628140703</v>
+      </c>
+      <c r="L6">
+        <v>0.005291005291005291</v>
+      </c>
+      <c r="M6">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="N6">
+        <v>0.01038961038961039</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>378</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.02645502645502645</v>
+      </c>
+      <c r="J7">
+        <v>0.5</v>
+      </c>
+      <c r="K7">
+        <v>0.05025125628140703</v>
+      </c>
+      <c r="L7">
+        <v>0.005291005291005291</v>
+      </c>
+      <c r="M7">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="N7">
+        <v>0.01038961038961039</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
         <v>11</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>581</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>0.02</v>
-      </c>
-      <c r="G7">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0.0189328743545611</v>
+      </c>
+      <c r="J8">
         <v>0.55</v>
       </c>
-      <c r="H7">
-        <v>0.04</v>
-      </c>
-      <c r="I7">
-        <v>0.01</v>
-      </c>
-      <c r="J7">
-        <v>0.43</v>
-      </c>
-      <c r="K7">
-        <v>0.01</v>
+      <c r="K8">
+        <v>0.03660565723793677</v>
+      </c>
+      <c r="L8">
+        <v>0.005163511187607574</v>
+      </c>
+      <c r="M8">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="N8">
+        <v>0.01020408163265306</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/experiment_2/notebooks/estrategias.xlsx
+++ b/experiments/experiment_2/notebooks/estrategias.xlsx
@@ -453,7 +453,7 @@
         <v>935</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0.0356020942408377</v>
       </c>
       <c r="L2">
-        <v>0.006417112299465241</v>
+        <v>0.00748663101604278</v>
       </c>
       <c r="M2">
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="N2">
-        <v>0.01273885350318471</v>
+        <v>0.01484623541887593</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -497,7 +497,7 @@
         <v>1590</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -518,13 +518,13 @@
         <v>0.02484472049689441</v>
       </c>
       <c r="L3">
-        <v>0.00440251572327044</v>
+        <v>0.005031446540880503</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3">
-        <v>0.008766437069505322</v>
+        <v>0.01001251564455569</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -585,7 +585,7 @@
         <v>581</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -606,13 +606,13 @@
         <v>0.03660565723793677</v>
       </c>
       <c r="L5">
-        <v>0.005163511187607574</v>
+        <v>0.006884681583476764</v>
       </c>
       <c r="M5">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="N5">
-        <v>0.01020408163265306</v>
+        <v>0.01358234295415959</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -629,7 +629,7 @@
         <v>378</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -650,13 +650,13 @@
         <v>0.05025125628140703</v>
       </c>
       <c r="L6">
-        <v>0.005291005291005291</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="M6">
-        <v>0.2857142857142857</v>
+        <v>0.375</v>
       </c>
       <c r="N6">
-        <v>0.01038961038961039</v>
+        <v>0.0155440414507772</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -673,7 +673,7 @@
         <v>378</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -694,13 +694,13 @@
         <v>0.05025125628140703</v>
       </c>
       <c r="L7">
-        <v>0.005291005291005291</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="M7">
-        <v>0.2857142857142857</v>
+        <v>0.375</v>
       </c>
       <c r="N7">
-        <v>0.01038961038961039</v>
+        <v>0.0155440414507772</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -717,7 +717,7 @@
         <v>581</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -738,13 +738,13 @@
         <v>0.03660565723793677</v>
       </c>
       <c r="L8">
-        <v>0.005163511187607574</v>
+        <v>0.006884681583476764</v>
       </c>
       <c r="M8">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="N8">
-        <v>0.01020408163265306</v>
+        <v>0.01358234295415959</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/experiment_2/notebooks/estrategias.xlsx
+++ b/experiments/experiment_2/notebooks/estrategias.xlsx
@@ -16,25 +16,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>E1</t>
+    <t>S1</t>
   </si>
   <si>
-    <t>E2</t>
+    <t>S2</t>
   </si>
   <si>
-    <t>E3</t>
+    <t>S3</t>
   </si>
   <si>
-    <t>E4</t>
+    <t>S4</t>
   </si>
   <si>
-    <t>E5</t>
+    <t>S5</t>
   </si>
   <si>
-    <t>E6</t>
+    <t>S6</t>
   </si>
   <si>
-    <t>E7</t>
+    <t>S7</t>
   </si>
 </sst>
 </file>

--- a/experiments/experiment_2/notebooks/estrategias.xlsx
+++ b/experiments/experiment_2/notebooks/estrategias.xlsx
@@ -16,25 +16,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>S1</t>
+    <t>Search</t>
   </si>
   <si>
-    <t>S2</t>
+    <t>Search + SB</t>
   </si>
   <si>
-    <t>S3</t>
+    <t>GS + SB</t>
   </si>
   <si>
-    <t>S4</t>
+    <t>Scopus + SB</t>
   </si>
   <si>
-    <t>S5</t>
+    <t>Scopus + BW // FW</t>
   </si>
   <si>
-    <t>S6</t>
+    <t>Scopus + BW + FW</t>
   </si>
   <si>
-    <t>S7</t>
+    <t>Scopus + FW + BW</t>
   </si>
 </sst>
 </file>

--- a/experiments/experiment_2/notebooks/estrategias.xlsx
+++ b/experiments/experiment_2/notebooks/estrategias.xlsx
@@ -28,13 +28,13 @@
     <t>Scopus + SB</t>
   </si>
   <si>
-    <t>Scopus + BW // FW</t>
+    <t>Scopus + BS // FS</t>
   </si>
   <si>
-    <t>Scopus + BW + FW</t>
+    <t>Scopus + BS + FS</t>
   </si>
   <si>
-    <t>Scopus + FW + BW</t>
+    <t>Scopus + FS + BS</t>
   </si>
 </sst>
 </file>

--- a/experiments/experiment_2/notebooks/estrategias.xlsx
+++ b/experiments/experiment_2/notebooks/estrategias.xlsx
@@ -447,7 +447,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>935</v>
@@ -465,13 +465,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01818181818181818</v>
+        <v>0.01711229946524064</v>
       </c>
       <c r="J2">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="K2">
-        <v>0.0356020942408377</v>
+        <v>0.03350785340314136</v>
       </c>
       <c r="L2">
         <v>0.00748663101604278</v>

--- a/experiments/experiment_2/notebooks/estrategias.xlsx
+++ b/experiments/experiment_2/notebooks/estrategias.xlsx
@@ -535,13 +535,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>478</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -553,22 +553,22 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01255230125523013</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.02409638554216867</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.006276150627615063</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.01234567901234568</v>
       </c>
     </row>
     <row r="5" spans="1:14">

--- a/experiments/experiment_2/notebooks/estrategias.xlsx
+++ b/experiments/experiment_2/notebooks/estrategias.xlsx
@@ -16,25 +16,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Search</t>
+    <t>DB Search</t>
   </si>
   <si>
-    <t>Search + SB</t>
+    <t>SB Search (BS*FS)</t>
   </si>
   <si>
-    <t>GS + SB</t>
+    <t>DB Search + BS*FS</t>
   </si>
   <si>
-    <t>Scopus + SB</t>
+    <t>Scopus + BS*FS</t>
   </si>
   <si>
-    <t>Scopus + BS // FS</t>
+    <t>Scopus + BS||FS</t>
   </si>
   <si>
-    <t>Scopus + BS + FS</t>
+    <t>Scopus + BS+FS</t>
   </si>
   <si>
-    <t>Scopus + FS + BS</t>
+    <t>Scopus + FS+BS</t>
   </si>
 </sst>
 </file>
@@ -491,13 +491,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>1590</v>
+        <v>478</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -509,22 +509,22 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01257861635220126</v>
+        <v>0.01255230125523013</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K3">
-        <v>0.02484472049689441</v>
+        <v>0.02409638554216867</v>
       </c>
       <c r="L3">
-        <v>0.005031446540880503</v>
+        <v>0.006276150627615063</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="N3">
-        <v>0.01001251564455569</v>
+        <v>0.01234567901234568</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -535,13 +535,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>478</v>
+        <v>1590</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -553,22 +553,22 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01255230125523013</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="J4">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0.02409638554216867</v>
+        <v>0.02484472049689441</v>
       </c>
       <c r="L4">
-        <v>0.006276150627615063</v>
+        <v>0.005031446540880503</v>
       </c>
       <c r="M4">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0.01234567901234568</v>
+        <v>0.01001251564455569</v>
       </c>
     </row>
     <row r="5" spans="1:14">
